--- a/Energia/Model/t1_confection/B1_Model_Structure.xlsx
+++ b/Energia/Model/t1_confection/B1_Model_Structure.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4CD628-144D-4096-BC01-9B4AFA517C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC6AC533-C565-4461-96D5-7AA87CA31E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sets" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="513">
   <si>
     <t>set</t>
   </si>
@@ -1566,6 +1566,12 @@
   </si>
   <si>
     <t>FSTCHRGER</t>
+  </si>
+  <si>
+    <t>PP_TPP</t>
+  </si>
+  <si>
+    <t>E1_ELE_FF</t>
   </si>
 </sst>
 </file>
@@ -1883,26 +1889,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L262"/>
+  <dimension ref="A1:L263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.84375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.4609375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.53515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.3046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1978,7 +1984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1988,7 +1994,7 @@
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
@@ -1996,7 +2002,7 @@
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:L3" si="1">+COUNTA(F4:F1048576)</f>
@@ -2027,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2018</v>
       </c>
@@ -2050,7 +2056,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2019</v>
       </c>
@@ -2064,7 +2070,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2020</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2021</v>
       </c>
@@ -2092,7 +2098,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2022</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2023</v>
       </c>
@@ -2120,7 +2126,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2024</v>
       </c>
@@ -2134,7 +2140,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2025</v>
       </c>
@@ -2145,7 +2151,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2026</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2027</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2028</v>
       </c>
@@ -2178,7 +2184,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2029</v>
       </c>
@@ -2189,7 +2195,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2030</v>
       </c>
@@ -2200,7 +2206,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2031</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2032</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2033</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2034</v>
       </c>
@@ -2244,7 +2250,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2035</v>
       </c>
@@ -2255,7 +2261,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2036</v>
       </c>
@@ -2266,7 +2272,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2037</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2038</v>
       </c>
@@ -2288,7 +2294,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>2039</v>
       </c>
@@ -2299,7 +2305,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2040</v>
       </c>
@@ -2310,7 +2316,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2041</v>
       </c>
@@ -2318,10 +2324,10 @@
         <v>269</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2042</v>
       </c>
@@ -2329,10 +2335,10 @@
         <v>270</v>
       </c>
       <c r="E28" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>2043</v>
       </c>
@@ -2343,7 +2349,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2044</v>
       </c>
@@ -2354,7 +2360,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2045</v>
       </c>
@@ -2365,7 +2371,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2046</v>
       </c>
@@ -2376,7 +2382,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2047</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>2048</v>
       </c>
@@ -2398,7 +2404,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>2049</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>2050</v>
       </c>
@@ -2420,7 +2426,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>2051</v>
       </c>
@@ -2431,7 +2437,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>2052</v>
       </c>
@@ -2442,7 +2448,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2053</v>
       </c>
@@ -2453,7 +2459,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2054</v>
       </c>
@@ -2464,7 +2470,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2055</v>
       </c>
@@ -2475,7 +2481,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2056</v>
       </c>
@@ -2486,7 +2492,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>2057</v>
       </c>
@@ -2497,7 +2503,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2058</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2059</v>
       </c>
@@ -2519,7 +2525,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2060</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>2061</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>2062</v>
       </c>
@@ -2552,7 +2558,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>2063</v>
       </c>
@@ -2563,7 +2569,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>2064</v>
       </c>
@@ -2574,7 +2580,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>2065</v>
       </c>
@@ -2585,7 +2591,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>2066</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>2067</v>
       </c>
@@ -2607,7 +2613,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>2068</v>
       </c>
@@ -2618,7 +2624,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>2069</v>
       </c>
@@ -2629,7 +2635,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>2070</v>
       </c>
@@ -2640,7 +2646,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>329</v>
       </c>
@@ -2648,7 +2654,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>327</v>
       </c>
@@ -2656,7 +2662,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>308</v>
       </c>
@@ -2664,7 +2670,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>309</v>
       </c>
@@ -2672,7 +2678,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>313</v>
       </c>
@@ -2680,7 +2686,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>314</v>
       </c>
@@ -2688,7 +2694,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>315</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>316</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>319</v>
       </c>
@@ -2712,7 +2718,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>320</v>
       </c>
@@ -2720,7 +2726,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>325</v>
       </c>
@@ -2728,7 +2734,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>482</v>
       </c>
@@ -2736,7 +2742,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>300</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>478</v>
       </c>
@@ -2752,7 +2758,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>306</v>
       </c>
@@ -2760,7 +2766,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>307</v>
       </c>
@@ -2768,7 +2774,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>117</v>
       </c>
@@ -2776,7 +2782,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>494</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>507</v>
       </c>
@@ -2792,7 +2798,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>292</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>293</v>
       </c>
@@ -2808,7 +2814,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>294</v>
       </c>
@@ -2816,7 +2822,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>295</v>
       </c>
@@ -2824,7 +2830,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>296</v>
       </c>
@@ -2832,7 +2838,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>297</v>
       </c>
@@ -2840,7 +2846,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>298</v>
       </c>
@@ -2848,7 +2854,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>299</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>311</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>317</v>
       </c>
@@ -2872,7 +2878,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>318</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>312</v>
       </c>
@@ -2888,7 +2894,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>302</v>
       </c>
@@ -2896,7 +2902,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>303</v>
       </c>
@@ -2904,7 +2910,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>326</v>
       </c>
@@ -2912,7 +2918,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>258</v>
       </c>
@@ -2920,7 +2926,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>253</v>
       </c>
@@ -2928,7 +2934,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>305</v>
       </c>
@@ -2936,7 +2942,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>304</v>
       </c>
@@ -2944,7 +2950,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>324</v>
       </c>
@@ -2952,7 +2958,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>330</v>
       </c>
@@ -2960,7 +2966,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>301</v>
       </c>
@@ -2968,7 +2974,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>483</v>
       </c>
@@ -2976,7 +2982,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>484</v>
       </c>
@@ -2984,7 +2990,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>118</v>
       </c>
@@ -2992,7 +2998,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>333</v>
       </c>
@@ -3000,7 +3006,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>334</v>
       </c>
@@ -3008,7 +3014,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>335</v>
       </c>
@@ -3016,7 +3022,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>475</v>
       </c>
@@ -3024,7 +3030,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>336</v>
       </c>
@@ -3032,7 +3038,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>337</v>
       </c>
@@ -3040,7 +3046,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>338</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>339</v>
       </c>
@@ -3056,7 +3062,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>340</v>
       </c>
@@ -3064,7 +3070,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>341</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>120</v>
       </c>
@@ -3080,7 +3086,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>342</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>343</v>
       </c>
@@ -3096,7 +3102,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>119</v>
       </c>
@@ -3104,7 +3110,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>344</v>
       </c>
@@ -3112,7 +3118,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>122</v>
       </c>
@@ -3120,7 +3126,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>345</v>
       </c>
@@ -3128,7 +3134,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>124</v>
       </c>
@@ -3136,7 +3142,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>346</v>
       </c>
@@ -3144,7 +3150,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>123</v>
       </c>
@@ -3152,7 +3158,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>347</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>121</v>
       </c>
@@ -3168,7 +3174,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>348</v>
       </c>
@@ -3176,7 +3182,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>349</v>
       </c>
@@ -3184,7 +3190,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>350</v>
       </c>
@@ -3192,7 +3198,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>126</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>351</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>125</v>
       </c>
@@ -3216,7 +3222,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>352</v>
       </c>
@@ -3224,7 +3230,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>353</v>
       </c>
@@ -3232,7 +3238,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>354</v>
       </c>
@@ -3240,7 +3246,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>355</v>
       </c>
@@ -3248,7 +3254,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>127</v>
       </c>
@@ -3256,649 +3262,657 @@
         <v>471</v>
       </c>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E134" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C202" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C212" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C235" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C236" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C237" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C238" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C239" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C242" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C243" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C244" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C245" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C246" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C247" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C249" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C250" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C251" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C252" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C253" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C254" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C255" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C256" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C259" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C260" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
         <v>510</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -3914,39 +3928,39 @@
       <selection activeCell="AE3" sqref="B3:AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.07421875" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.07421875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.84375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.07421875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.84375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.07421875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.69140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.07421875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="31" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.53515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="35.69140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="35.84375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="40.69140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="40.69140625" customWidth="1"/>
-    <col min="25" max="25" width="18.53515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.53515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.69140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.84375" customWidth="1"/>
+    <col min="20" max="20" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="40.7109375" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.85546875" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3975,7 +3989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4070,7 +4084,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4195,7 +4209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -4287,7 +4301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -4373,7 +4387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>20</v>
       </c>
@@ -4438,7 +4452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>20</v>
       </c>
@@ -4458,7 +4472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
         <v>20</v>
       </c>
@@ -4483,43 +4497,43 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.69140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.53515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.4609375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.53515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.4609375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.4609375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.53515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.3046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.84375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.4609375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.53515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.3046875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.53515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.69140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.3046875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="21" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.07421875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.3046875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.69140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.84375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.3046875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4539,7 +4553,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4673,7 +4687,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4850,7 +4864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -4981,7 +4995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -5112,7 +5126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -5225,7 +5239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -5281,7 +5295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>20</v>
       </c>
@@ -5307,7 +5321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
         <v>20</v>
       </c>
